--- a/440dataset.xlsx
+++ b/440dataset.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="111">
   <si>
     <t>sample_id</t>
   </si>
@@ -216,13 +216,169 @@
   </si>
   <si>
     <t>Thousand years of human development has brought us to our current state of evolution and civilization development. Different human societies including hunter-gatherers and empires have used discovery and conflict together with creativity and cooperation to transform the world throughout its entire timeline since the beginning of human civilization. The study of history reveals our continuous efforts to achieve freedom and knowledge while fighting for equality and justice continuously. The study of history enables us to understand past events besides identifying recurring patterns which shape both the present day and our upcoming era. Through history we recognize the achievements of our progress as well as the errors which need to be prevented from occurring again. Human history functions as an essential instrument which helps us grasp our identity and origins along with showing us the path toward constructing better shared futures.</t>
+  </si>
+  <si>
+    <t>Learning a second language enhances cognitive skills and opens up cultural understanding.</t>
+  </si>
+  <si>
+    <t>Picking up another language boosts brainpower and helps people grasp different cultures.</t>
+  </si>
+  <si>
+    <t>Gaining fluency in another language strengthens your mind and deepens your cultural awareness.</t>
+  </si>
+  <si>
+    <t>The brain becomes more agile and culturally attuned when people master new languages.</t>
+  </si>
+  <si>
+    <t>AI - Rewrite</t>
+  </si>
+  <si>
+    <t>During a recent Cabinet meeting, former President Trump offered his most detailed comments yet on the future of undocumented farmworkers, who make up about half of the nation’s agricultural workforce, under his mass deportation plan. Trump said farmers could submit letters recommending certain workers, allowing them to stay temporarily, continue working, and then leave and re-enter legally. He emphasized the need to support farmers, hotels, and other industries that rely on these workers. However, the White House and Department of Agriculture did not clarify the policy or its timeline. Farm industry groups have warned that mass deportations could cripple the food supply chain, and many immigrant farmworkers have already taken precautions, such as assigning guardians for their children, in preparation for potential detention. Unlike during his first term, Trump has made no promises this time that farmworkers will be spared from deportation.</t>
+  </si>
+  <si>
+    <t>At a recent Cabinet meeting, former President Trump gave his most detailed remarks yet on the future of undocumented farmworkers under his mass deportation plan. He said farmers could submit letters vouching for specific workers, allowing them to remain temporarily, continue working, and later leave and re-enter legally. Trump stressed the importance of supporting farmers, hotels, and other industries that rely on these workers. The White House and Department of Agriculture did not respond to requests for clarification or a timeline for the policy. Farm industry groups have warned that mass deportations could severely disrupt the food supply chain, while many immigrant farmworkers have prepared by assigning guardians for their children and taking other protective steps. Unlike in his first term, Trump has not promised to shield agricultural workers from deportation.</t>
+  </si>
+  <si>
+    <t>During a recent Cabinet meeting, former President Trump outlined a vague plan for handling undocumented farmworkers under his mass deportation policy, suggesting farmers could submit letters recommending certain workers to delay their removal. Trump said these workers would be allowed to stay temporarily, continue working, and later leave and return legally, emphasizing the need to support industries like farming and hospitality that rely heavily on immigrant labor. The White House and Department of Agriculture have not provided further clarification or a timeline for the policy. Farm industry groups have warned that large-scale deportations could cripple the food supply chain, and many undocumented workers have already taken precautions, such as assigning guardians for their children, in anticipation of detention. Unlike his first term, Trump has made no assurances that farmworkers will be spared this time.</t>
+  </si>
+  <si>
+    <t>Climate change is a complex issue driven by human activity, requiring global cooperation and innovative policy solutions to mitigate its effects.</t>
+  </si>
+  <si>
+    <t>Addressing climate change demands worldwide teamwork and smart policies, since it largely stems from how we interact with the environment.</t>
+  </si>
+  <si>
+    <t>Human-caused climate problems can only be solved with coordinated global responses and new environmental strategies</t>
+  </si>
+  <si>
+    <t>Because human actions contribute heavily to climate change, we must rethink policies and join together internationally to counteract it.</t>
+  </si>
+  <si>
+    <t>Exercise improves mental health by reducing stress, anxiety, and depression.</t>
+  </si>
+  <si>
+    <t>Working out regularly helps ease anxiety and depression, boosting mental well-being.</t>
+  </si>
+  <si>
+    <t>Staying active can reduce emotional stress and enhance overall psychological health.</t>
+  </si>
+  <si>
+    <t>By engaging in physical activity, people can lower their anxiety levels and feel emotionally better.</t>
+  </si>
+  <si>
+    <t>Public transportation systems reduce traffic congestion, lower emissions, and provide an affordable option for daily commuters.</t>
+  </si>
+  <si>
+    <t>Affordable and eco-friendly, public transit helps cut down on both emissions and urban traffic jams.</t>
+  </si>
+  <si>
+    <t>Transportation alternatives like buses and trains ease gridlock and offer greener commuting options.</t>
+  </si>
+  <si>
+    <t>Choosing subways or buses instead of cars helps reduce pollution and traffic, while also being budget-friendly.</t>
+  </si>
+  <si>
+    <t>Data privacy is essential in protecting individuals from unauthorized access and identity theft.</t>
+  </si>
+  <si>
+    <t>Maintaining data confidentiality shields people from hacks and misuse of their personal details.</t>
+  </si>
+  <si>
+    <t>Keeping personal information secure prevents identity theft and unauthorized usage.</t>
+  </si>
+  <si>
+    <t>Without strong privacy controls, people risk having their data accessed or stolen by third parties.</t>
+  </si>
+  <si>
+    <t>Reading fiction not only entertains but also enhances empathy by allowing readers to experience different perspectives.</t>
+  </si>
+  <si>
+    <t>Fictional stories let us walk in others’ shoes, fostering compassion and emotional understanding</t>
+  </si>
+  <si>
+    <t>Novels give readers insight into diverse lives, helping them grow more emotionally aware</t>
+  </si>
+  <si>
+    <t>Reading stories from different viewpoints builds empathy and expands emotional intelligence.</t>
+  </si>
+  <si>
+    <t>Electric vehicles help reduce greenhouse gas emissions and dependence on fossil fuels.</t>
+  </si>
+  <si>
+    <t>By cutting down on fossil fuel use, EVs contribute to a cleaner environment.</t>
+  </si>
+  <si>
+    <t>Switching to electric cars curbs emissions and reduces oil dependence.</t>
+  </si>
+  <si>
+    <t>Driving EVs instead of gas-powered cars helps the planet by cutting pollution.</t>
+  </si>
+  <si>
+    <t>The issue of labeling albums with explicit content warnings has been a controversial topic for decades. While some argue that labeling is enough to warn parents about inappropriate lyrics, others believe that more needs to be done. One potential solution would be for the record industry to implement a rating system similar to the movie industry. This would involve assigning ratings to albums based on the content, such as ""PG-13"" or ""R"" ratings. This would allow parents to make more informed decisions about what their children are exposed to. Another potential solution would be for the record industry to provide more detailed information about the content of each album on their websites or in stores. This could include providing a list of all songs with explicit content and a brief explanation of why they are labeled as such. Ultimately, the best solution may be a combination of these approaches. By providing more information and implementing a rating system, parents would have more tools to make informed decisions about the media their children consume.</t>
+  </si>
+  <si>
+    <t>For many decades the practice of warning album listeners through explicit content labels has remained a contentious subject. Some people think album labels serve as sufficient warnings for parents about inappropriate lyrics yet others feel more action is required. The record industry should adopt a rating system which follows the model used by the movie industry. The record industry should create a rating system which assigns album content warnings using labels like ""PG-13"" or ""R"". Parents would benefit from detailed information that enables them to decide which content their children should encounter. The record industry should enhance their website and store content descriptions to provide detailed information about each album. Record companies should offer complete listings of explicit songs together with brief descriptions of why each song received its explicit label. A combination of current approaches represents the most effective solution to address the issue. The combination of enhanced information disclosure and media rating systems would enable parents to better evaluate what media their children access.</t>
+  </si>
+  <si>
+    <t>For many decades there has been ongoing debate about whether albums should receive explicit content labels. The debate exists between those who think warnings through labels serve parents adequately and those who feel additional action is necessary. Record industry executives should create an album rating system which follows the model used by film ratings. A system of album ratings should use labels such as ""PG-13"" or ""R"" to classify content. The implementation of such a rating system would enable parents to find out what content their children encounter. The record industry should enhance its website and store content descriptions to deliver detailed information about every album. Record companies could present complete lists of explicit songs and accompanying descriptions about why they received their labels. A combination of current solutions represents the most effective approach to tackle the issue. A rating system together with expanded content information would enable parents to better understand what their children experience in media consumption.</t>
+  </si>
+  <si>
+    <t>For many years the practice of warning about explicit album content through labels has sparked extensive debate among different stakeholders. The controversy exists regarding whether record labels communicate sufficient warning information about inappropriate lyrics. The record industry should establish an album rating system with the same approach used by the movie industry. Record industry ratings alongside albums would indicate content suitability through designations such as ""PG-13"" and ""R"" labels. With such a system parents could properly decide what material their children need to encounter. The record industry can solve this issue by publishing comprehensive descriptions of album content through their websites and outlets in brick-and-mortar stores. Record companies should list all explicit songs in their product listings while describing briefly why those tracks carry the warning label. A combination of current strategies represents the best opportunity for solving this problem. A rating system along with expanded content details would enable parents to base their media decisions for their children on better knowledge.</t>
+  </si>
+  <si>
+    <t>Medical researchers, cosmetic companies, and others often perform experiments on animals. Many people feel that experimentation on animals is wrong and should be stopped immediately because animals do feel pain, and there are other alternatives.</t>
+  </si>
+  <si>
+    <t>Medical researchers together with cosmetic companies and additional entities conduct animal-based experiments. People oppose animal experimentation because animals experience pain while alternative methods exist.</t>
+  </si>
+  <si>
+    <t>Research entities together with cosmetic producers and various other entities conduct experiments involving animals. Public opinion supports an immediate end to animal testing since animals experience pain and additional testing methods exist.</t>
+  </si>
+  <si>
+    <t>Research facilities and cosmetic industrial entities together with several other organizations commonly conduct tests on animals. People strongly oppose animal experimentation which should end at once because animals experience pain and available alternative methods exist.</t>
+  </si>
+  <si>
+    <t>Climate change is a global issue that affects everyone and everything on our planet. It’s caused by human activities such as burning fossil fuels, deforestation, and industrial processes that release greenhouse gases into the atmosphere. These gases trap heat from the sun and cause the Earth’s temperature to rise, leading to more frequent and severe weather events like hurricanes, droughts, and floods.  The consequences of climate change are far-reaching and devastating. They include rising sea levels that threaten coastal cities and island nations, loss of biodiversity as species struggle to adapt to changing conditions, and food and water shortages that could lead to conflict and displacement.  But there is hope. By taking action now to reduce our greenhouse gas emissions and transition to clean energy sources like wind and solar power, we can slow down the effects of climate change and protect our planet for future generations.  There are many ways you can get involved in the fight against climate change. You can reduce your own carbon footprint by driving less, eating a plant-based diet, and using energy-efficient appliances. You can also support policies that promote clean energy and protect natural resources.  I hope this essay has convinced you of the importance of taking action on climate change. Together, we can make a difference!</t>
+  </si>
+  <si>
+    <t>Climate change represents a worldwide problem which impacts all living beings and environmental elements throughout our planet. Human activities which include fossil fuel burning and deforestation alongside industrial processes produce greenhouse gases that cause climate change. The Earth's temperature increases because greenhouse gases capture solar heat which results in more intense and frequent severe weather events including hurricanes and droughts and floods.  Climate change produces widespread destructive effects throughout the planet. Rising sea levels endanger coastal cities and island nations while species face extinction from changing conditions and food and water shortages create potential conflicts that force population displacement.  But there is hope. Our present-day actions to decrease greenhouse gas emissions while adopting wind and solar power will decelerate climate change impacts which will safeguard Earth for the generations ahead.  Various methods exist for people to participate in the battle against climate change. You can minimize your carbon footprint through three actions: driving less, eating plant-based foods and using energy-efficient household appliances. Your support for policies that defend natural resources and promote clean energy sources will help achieve these goals.  The information in this essay should have demonstrated to you the urgent need for climate change action. Our collective action will create meaningful change.</t>
+  </si>
+  <si>
+    <t>The entire planet faces global climate change which impacts all natural and human elements. The human-generated activities of burning fossil fuels and deforestation together with industrial processes produce greenhouse gases which create climate change. The Earth’s temperature rises due to greenhouse gases trapping solar heat which produces an increase in severe weather conditions such as hurricanes and droughts and floods.  Climate change produces extensive negative effects that devastate our planet. Rising ocean levels endanger coastal settlements while biodiversity declines through species' inability to adapt to environmental changes and limited food and water resources spark conflicts which force population movements.  But there is hope. Our present-day commitment to lowering greenhouse gas emissions alongside implementing wind and solar power systems will decelerate climate change impacts which will safeguard the planet for upcoming generations.  Various methods exist for people to participate in the battle against climate change. The reduction of personal carbon footprint starts through driving less and eating plant-based foods and using energy-efficient appliances. Supporting policies which promote clean energy alongside natural resource protection measures can help you contribute to climate change mitigation.  The information presented in this essay should have demonstrated to you why we must take action against climate change. Our collective effort will create meaningful change.</t>
+  </si>
+  <si>
+    <t>The worldwide issue of climate change impacts all elements on Earth and all people across the planet. Our activities which include burning fossil fuels together with deforestation and industrial processes create an environment with increased greenhouse gases. The atmosphere holds greenhouse gases that reflect sun heat causing Earth temperature rise which produces stronger and more frequent natural disasters such as hurricanes and droughts and floods.  Various dire outcomes result from climate change impacts the entire planet. Climate change risks numerous serious consequences including rising ocean waters that endanger cities and islands and causes species extinction and creates food and water scarcities which may lead to warfare and population relocation.  But there is hope. A current effort to cut greenhouse gas emissions and establish wind and solar energy systems can help control climate change and secure a safe environment for upcoming human generations.  Various approaches exist for individuals to participate in the campaign against climate change. The reduction of your carbon footprint becomes possible through driving less and eating plants instead of meat and using smart appliances. Promoting clean energy through supporting policies that defend natural resources should become part of your efforts.  This paper should have demonstrated to you why immediate action against climate change matters. Our collective efforts will create positive change.</t>
+  </si>
+  <si>
+    <t>Many people volunteer their time to help others, either through non-profit organizations, churches, or other charitable venues. Write an essay convincing readers to find a charity and volunteer their time.</t>
+  </si>
+  <si>
+    <t>People dedicate their time to help others by working with non-profit organizations and churches and charitable venues. Create an essay that motivates people to locate a charitable organization where they can donate their time.</t>
+  </si>
+  <si>
+    <t>People choose to donate their time for helping others through non-profit organizations, churches and charitable venues. Create an essay which shows people the importance of searching for a charity and dedicating their volunteer hours.</t>
+  </si>
+  <si>
+    <t>People actively dedicate their time to help others as members of nonprofit organizations and churches and charitable establishments. An essay recommends people to select a charity then dedicate their time through voluntary work.</t>
+  </si>
+  <si>
+    <t>Each decade has its unique characteristics, and people may have different reasons for choosing a specific period. However, each era also had its challenges and limitations, such as social inequality, political unrest, and technological disadvantages. That being said, I can provide some general information about popular decades and their significant events and cultural trends: 1920s (Roaring Twenties): This decade was characterized by cultural revolutions, including the rise of jazz music, flapper fashion, and prohibition. It was also a time of economic prosperity and industrial growth, but it was followed by the Great Depression. 1950s (Post-War Era): After World War II, the 1950s saw a rise in consumerism and suburbanization, as well as the beginning of the civil rights movement. Popular culture included the rise of rock 'n' roll music and television shows, but it was also marked by social conformity and political paranoia. 1960s (Counterculture Movement): The 1960s were a time of political and social upheaval, with the civil rights movement, anti-war protests, and the rise of the counterculture movement. It was also marked by the space race, the Vietnam War, and the assassination of prominent figures. Popular culture included the rise of psychedelic music and fashion, as well as the sexual revolution. 1980s (Reagan Era): The 1980s were marked by the conservative policies of the Reagan administration and the rise of neoliberalism. Popular culture included the rise of MTV and music videos, the emergence of hip-hop, and the influence of Hollywood movies. Ultimately, the choice of which decade to live in is a matter of personal preference and depends on what aspects of that era one finds appealing.</t>
+  </si>
+  <si>
+    <t>People select particular periods for different reasons which reflect the distinct features of each decade. Every period in history faced its own set of obstacles which included social disparities alongside political instability and technological shortcomings. The 1920s represented the Roaring Twenties through cultural revolutions that brought jazz music and flapper fashion and prohibition laws. The post-war period of the 1950s brought economic expansion alongside industrial development while the Great Depression followed shortly after. The 1960s brought together popular culture elements like rock 'n' roll music and television shows yet they existed alongside social conformity and political paranoia. The era featured both the space competition and the Vietnam conflict and multiple assassinations of important figures. The Reagan Era of the 1980s brought together two major cultural developments: psychedelic music and fashion along with the sexual revolution. Popular culture expanded through the growth of MTV music videos and the development of hip-hop music and Hollywood's increasing cultural influence. The selection of a particular decade to inhabit depends on individual taste and the specific elements from that period which attract someone.</t>
+  </si>
+  <si>
+    <t>Every period possesses distinct features because individuals select their preferred era for different personal reasons. Each historical period contained limitations which included social inequality alongside political unrest and technological disadvantages. In the 1920s (Roaring Twenties) society experienced cultural revolution through jazz music and flapper fashion while enduring prohibition. The 1950s brought economic prosperity and industrial growth yet this period ended with the Great Depression. After World War II the 1950s witnessed consumerism along with suburbanization and the start of the civil rights movement. Rock 'n' roll music and television shows emerged as popular cultural expressions during this period although social conformity and political paranoia also defined the era. The 1960s (Counterculture Movement): This decade featured an era of political and social revolution through civil rights activism and anti-war demonstrations as well as counterculture activism. During this period the United States witnessed both the space competition and the Vietnam conflict and multiple prominent assassinations. The 1980s brought us psychedelic music and fashion while the sexual revolution took place alongside the conservative Reagan Era. Music videos aired on MTV alongside hip-hop and Hollywood movies dominated popular culture during this period. The selection between decades depends on individual preferences since different aspects from each era attract various individuals.</t>
+  </si>
+  <si>
+    <t>Distinct time periods feature individual qualities and individuals choose periods for various personal motives. Each historic period contained difficulties which included social inequality as well as political unrest and also technological disadvantages. The 1920s represented the Roaring Twenties which included cultural revolutions based on jazz music and flapper style and Prohibition regulations. The 1950s followed World War II to establish itself as a post-war era that combined consumerism with suburban development together with the emergence of civil rights activism. The 1960s brought us the counterculture movement together with civil rights activity and anti-war demonstrations yet the public experienced both political worry and social uniformity and the development of rock 'n' roll music and television programs. During that period the space race took place simultaneously with the Vietnam War and the assassinations of influential figures. The 1980s brought both Reagan's conservative administration and the spread of neoliberalism together with psychedelic music trends and fashion along with the sexual revolution. Popular culture in this era saw the growth of MTV and music videos as well as the emergence of hip-hop alongside Hollywood movie industry prominence. The decision between time periods to live in depends solely on individual tastes regarding historical qualities from different historical epochs.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -230,6 +386,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -249,16 +411,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -477,6 +643,7 @@
   <cols>
     <col customWidth="1" min="3" max="3" width="18.13"/>
     <col customWidth="1" min="4" max="4" width="18.25"/>
+    <col customWidth="1" min="5" max="5" width="48.0"/>
     <col customWidth="1" min="6" max="6" width="36.88"/>
     <col customWidth="1" min="7" max="7" width="19.5"/>
   </cols>
@@ -494,7 +661,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -520,7 +687,7 @@
       <c r="D2" s="1">
         <v>0.0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -543,7 +710,7 @@
       <c r="D3" s="1">
         <v>3.0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -566,14 +733,14 @@
       <c r="D4" s="1">
         <v>6.0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2">
-        <v>0.95</v>
+      <c r="H4" s="1">
+        <v>95.0</v>
       </c>
     </row>
     <row r="5">
@@ -589,14 +756,14 @@
       <c r="D5" s="1">
         <v>9.0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.97</v>
+      <c r="H5" s="1">
+        <v>97.0</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +779,7 @@
       <c r="D6" s="1">
         <v>0.0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -635,7 +802,7 @@
       <c r="D7" s="1">
         <v>3.0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -658,7 +825,7 @@
       <c r="D8" s="1">
         <v>6.0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -681,7 +848,7 @@
       <c r="D9" s="1">
         <v>9.0</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -704,7 +871,7 @@
       <c r="D10" s="1">
         <v>0.0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -727,7 +894,7 @@
       <c r="D11" s="1">
         <v>3.0</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -750,7 +917,7 @@
       <c r="D12" s="1">
         <v>6.0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -773,7 +940,7 @@
       <c r="D13" s="1">
         <v>9.0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -796,7 +963,7 @@
       <c r="D14" s="1">
         <v>0.0</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -819,7 +986,7 @@
       <c r="D15" s="1">
         <v>3.0</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -842,7 +1009,7 @@
       <c r="D16" s="1">
         <v>6.0</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -865,7 +1032,7 @@
       <c r="D17" s="1">
         <v>9.0</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -888,7 +1055,7 @@
       <c r="D18" s="1">
         <v>0.0</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -911,7 +1078,7 @@
       <c r="D19" s="1">
         <v>3.0</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -934,7 +1101,7 @@
       <c r="D20" s="1">
         <v>6.0</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -957,7 +1124,7 @@
       <c r="D21" s="1">
         <v>9.0</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -980,7 +1147,7 @@
       <c r="D22" s="1">
         <v>0.0</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1003,7 +1170,7 @@
       <c r="D23" s="1">
         <v>3.0</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1026,7 +1193,7 @@
       <c r="D24" s="1">
         <v>6.0</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1049,7 +1216,7 @@
       <c r="D25" s="1">
         <v>9.0</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1072,7 +1239,7 @@
       <c r="D26" s="1">
         <v>0.0</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1095,7 +1262,7 @@
       <c r="D27" s="1">
         <v>3.0</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -1118,7 +1285,7 @@
       <c r="D28" s="1">
         <v>6.0</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1141,7 +1308,7 @@
       <c r="D29" s="1">
         <v>9.0</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -1164,7 +1331,7 @@
       <c r="D30" s="1">
         <v>0.0</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1187,7 +1354,7 @@
       <c r="D31" s="1">
         <v>3.0</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -1210,7 +1377,7 @@
       <c r="D32" s="1">
         <v>6.0</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -1233,7 +1400,7 @@
       <c r="D33" s="1">
         <v>9.0</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -1256,7 +1423,7 @@
       <c r="D34" s="1">
         <v>0.0</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -1279,7 +1446,7 @@
       <c r="D35" s="1">
         <v>3.0</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -1302,7 +1469,7 @@
       <c r="D36" s="1">
         <v>6.0</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -1325,7 +1492,7 @@
       <c r="D37" s="1">
         <v>9.0</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -1348,7 +1515,7 @@
       <c r="D38" s="1">
         <v>0.0</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -1371,7 +1538,7 @@
       <c r="D39" s="1">
         <v>3.0</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -1394,7 +1561,7 @@
       <c r="D40" s="1">
         <v>6.0</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -1417,7 +1584,7 @@
       <c r="D41" s="1">
         <v>9.0</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -1440,7 +1607,7 @@
       <c r="D42" s="1">
         <v>0.0</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -1463,7 +1630,7 @@
       <c r="D43" s="1">
         <v>3.0</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -1486,7 +1653,7 @@
       <c r="D44" s="1">
         <v>6.0</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -1509,7 +1676,7 @@
       <c r="D45" s="1">
         <v>9.0</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -1532,7 +1699,7 @@
       <c r="D46" s="1">
         <v>0.0</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -1555,7 +1722,7 @@
       <c r="D47" s="1">
         <v>3.0</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -1578,7 +1745,7 @@
       <c r="D48" s="1">
         <v>6.0</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -1601,7 +1768,7 @@
       <c r="D49" s="1">
         <v>9.0</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -1610,6 +1777,3876 @@
       <c r="H49" s="1">
         <v>50.0</v>
       </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="1">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="1">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="1">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="1">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="1">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="1">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="1">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="1">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="1">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="1">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="1">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="1">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="1">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="1">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="1">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="1">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="1">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="1">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="1">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="1">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="1">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="1">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="1">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="1">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="1">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="1">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="1">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="1">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="1">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="1">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="1">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="1">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="1">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116">
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118">
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123">
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124">
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125">
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126">
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129">
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133">
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135">
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137">
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138">
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139">
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140">
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141">
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142">
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143">
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144">
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145">
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146">
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147">
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148">
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149">
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150">
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151">
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152">
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153">
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154">
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155">
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156">
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157">
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158">
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159">
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160">
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161">
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162">
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163">
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164">
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165">
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166">
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167">
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168">
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170">
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172">
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173">
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174">
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175">
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176">
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177">
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178">
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179">
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180">
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181">
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182">
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183">
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184">
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185">
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186">
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187">
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188">
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189">
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190">
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191">
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192">
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193">
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194">
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195">
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196">
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197">
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198">
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199">
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200">
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201">
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202">
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203">
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204">
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205">
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206">
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207">
+      <c r="E207" s="4"/>
+    </row>
+    <row r="208">
+      <c r="E208" s="4"/>
+    </row>
+    <row r="209">
+      <c r="E209" s="4"/>
+    </row>
+    <row r="210">
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211">
+      <c r="E211" s="4"/>
+    </row>
+    <row r="212">
+      <c r="E212" s="4"/>
+    </row>
+    <row r="213">
+      <c r="E213" s="4"/>
+    </row>
+    <row r="214">
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215">
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216">
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217">
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218">
+      <c r="E218" s="4"/>
+    </row>
+    <row r="219">
+      <c r="E219" s="4"/>
+    </row>
+    <row r="220">
+      <c r="E220" s="4"/>
+    </row>
+    <row r="221">
+      <c r="E221" s="4"/>
+    </row>
+    <row r="222">
+      <c r="E222" s="4"/>
+    </row>
+    <row r="223">
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224">
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225">
+      <c r="E225" s="4"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227">
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228">
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229">
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230">
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231">
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232">
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233">
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234">
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235">
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236">
+      <c r="E236" s="4"/>
+    </row>
+    <row r="237">
+      <c r="E237" s="4"/>
+    </row>
+    <row r="238">
+      <c r="E238" s="4"/>
+    </row>
+    <row r="239">
+      <c r="E239" s="4"/>
+    </row>
+    <row r="240">
+      <c r="E240" s="4"/>
+    </row>
+    <row r="241">
+      <c r="E241" s="4"/>
+    </row>
+    <row r="242">
+      <c r="E242" s="4"/>
+    </row>
+    <row r="243">
+      <c r="E243" s="4"/>
+    </row>
+    <row r="244">
+      <c r="E244" s="4"/>
+    </row>
+    <row r="245">
+      <c r="E245" s="4"/>
+    </row>
+    <row r="246">
+      <c r="E246" s="4"/>
+    </row>
+    <row r="247">
+      <c r="E247" s="4"/>
+    </row>
+    <row r="248">
+      <c r="E248" s="4"/>
+    </row>
+    <row r="249">
+      <c r="E249" s="4"/>
+    </row>
+    <row r="250">
+      <c r="E250" s="4"/>
+    </row>
+    <row r="251">
+      <c r="E251" s="4"/>
+    </row>
+    <row r="252">
+      <c r="E252" s="4"/>
+    </row>
+    <row r="253">
+      <c r="E253" s="4"/>
+    </row>
+    <row r="254">
+      <c r="E254" s="4"/>
+    </row>
+    <row r="255">
+      <c r="E255" s="4"/>
+    </row>
+    <row r="256">
+      <c r="E256" s="4"/>
+    </row>
+    <row r="257">
+      <c r="E257" s="4"/>
+    </row>
+    <row r="258">
+      <c r="E258" s="4"/>
+    </row>
+    <row r="259">
+      <c r="E259" s="4"/>
+    </row>
+    <row r="260">
+      <c r="E260" s="4"/>
+    </row>
+    <row r="261">
+      <c r="E261" s="4"/>
+    </row>
+    <row r="262">
+      <c r="E262" s="4"/>
+    </row>
+    <row r="263">
+      <c r="E263" s="4"/>
+    </row>
+    <row r="264">
+      <c r="E264" s="4"/>
+    </row>
+    <row r="265">
+      <c r="E265" s="4"/>
+    </row>
+    <row r="266">
+      <c r="E266" s="4"/>
+    </row>
+    <row r="267">
+      <c r="E267" s="4"/>
+    </row>
+    <row r="268">
+      <c r="E268" s="4"/>
+    </row>
+    <row r="269">
+      <c r="E269" s="4"/>
+    </row>
+    <row r="270">
+      <c r="E270" s="4"/>
+    </row>
+    <row r="271">
+      <c r="E271" s="4"/>
+    </row>
+    <row r="272">
+      <c r="E272" s="4"/>
+    </row>
+    <row r="273">
+      <c r="E273" s="4"/>
+    </row>
+    <row r="274">
+      <c r="E274" s="4"/>
+    </row>
+    <row r="275">
+      <c r="E275" s="4"/>
+    </row>
+    <row r="276">
+      <c r="E276" s="4"/>
+    </row>
+    <row r="277">
+      <c r="E277" s="4"/>
+    </row>
+    <row r="278">
+      <c r="E278" s="4"/>
+    </row>
+    <row r="279">
+      <c r="E279" s="4"/>
+    </row>
+    <row r="280">
+      <c r="E280" s="4"/>
+    </row>
+    <row r="281">
+      <c r="E281" s="4"/>
+    </row>
+    <row r="282">
+      <c r="E282" s="4"/>
+    </row>
+    <row r="283">
+      <c r="E283" s="4"/>
+    </row>
+    <row r="284">
+      <c r="E284" s="4"/>
+    </row>
+    <row r="285">
+      <c r="E285" s="4"/>
+    </row>
+    <row r="286">
+      <c r="E286" s="4"/>
+    </row>
+    <row r="287">
+      <c r="E287" s="4"/>
+    </row>
+    <row r="288">
+      <c r="E288" s="4"/>
+    </row>
+    <row r="289">
+      <c r="E289" s="4"/>
+    </row>
+    <row r="290">
+      <c r="E290" s="4"/>
+    </row>
+    <row r="291">
+      <c r="E291" s="4"/>
+    </row>
+    <row r="292">
+      <c r="E292" s="4"/>
+    </row>
+    <row r="293">
+      <c r="E293" s="4"/>
+    </row>
+    <row r="294">
+      <c r="E294" s="4"/>
+    </row>
+    <row r="295">
+      <c r="E295" s="4"/>
+    </row>
+    <row r="296">
+      <c r="E296" s="4"/>
+    </row>
+    <row r="297">
+      <c r="E297" s="4"/>
+    </row>
+    <row r="298">
+      <c r="E298" s="4"/>
+    </row>
+    <row r="299">
+      <c r="E299" s="4"/>
+    </row>
+    <row r="300">
+      <c r="E300" s="4"/>
+    </row>
+    <row r="301">
+      <c r="E301" s="4"/>
+    </row>
+    <row r="302">
+      <c r="E302" s="4"/>
+    </row>
+    <row r="303">
+      <c r="E303" s="4"/>
+    </row>
+    <row r="304">
+      <c r="E304" s="4"/>
+    </row>
+    <row r="305">
+      <c r="E305" s="4"/>
+    </row>
+    <row r="306">
+      <c r="E306" s="4"/>
+    </row>
+    <row r="307">
+      <c r="E307" s="4"/>
+    </row>
+    <row r="308">
+      <c r="E308" s="4"/>
+    </row>
+    <row r="309">
+      <c r="E309" s="4"/>
+    </row>
+    <row r="310">
+      <c r="E310" s="4"/>
+    </row>
+    <row r="311">
+      <c r="E311" s="4"/>
+    </row>
+    <row r="312">
+      <c r="E312" s="4"/>
+    </row>
+    <row r="313">
+      <c r="E313" s="4"/>
+    </row>
+    <row r="314">
+      <c r="E314" s="4"/>
+    </row>
+    <row r="315">
+      <c r="E315" s="4"/>
+    </row>
+    <row r="316">
+      <c r="E316" s="4"/>
+    </row>
+    <row r="317">
+      <c r="E317" s="4"/>
+    </row>
+    <row r="318">
+      <c r="E318" s="4"/>
+    </row>
+    <row r="319">
+      <c r="E319" s="4"/>
+    </row>
+    <row r="320">
+      <c r="E320" s="4"/>
+    </row>
+    <row r="321">
+      <c r="E321" s="4"/>
+    </row>
+    <row r="322">
+      <c r="E322" s="4"/>
+    </row>
+    <row r="323">
+      <c r="E323" s="4"/>
+    </row>
+    <row r="324">
+      <c r="E324" s="4"/>
+    </row>
+    <row r="325">
+      <c r="E325" s="4"/>
+    </row>
+    <row r="326">
+      <c r="E326" s="4"/>
+    </row>
+    <row r="327">
+      <c r="E327" s="4"/>
+    </row>
+    <row r="328">
+      <c r="E328" s="4"/>
+    </row>
+    <row r="329">
+      <c r="E329" s="4"/>
+    </row>
+    <row r="330">
+      <c r="E330" s="4"/>
+    </row>
+    <row r="331">
+      <c r="E331" s="4"/>
+    </row>
+    <row r="332">
+      <c r="E332" s="4"/>
+    </row>
+    <row r="333">
+      <c r="E333" s="4"/>
+    </row>
+    <row r="334">
+      <c r="E334" s="4"/>
+    </row>
+    <row r="335">
+      <c r="E335" s="4"/>
+    </row>
+    <row r="336">
+      <c r="E336" s="4"/>
+    </row>
+    <row r="337">
+      <c r="E337" s="4"/>
+    </row>
+    <row r="338">
+      <c r="E338" s="4"/>
+    </row>
+    <row r="339">
+      <c r="E339" s="4"/>
+    </row>
+    <row r="340">
+      <c r="E340" s="4"/>
+    </row>
+    <row r="341">
+      <c r="E341" s="4"/>
+    </row>
+    <row r="342">
+      <c r="E342" s="4"/>
+    </row>
+    <row r="343">
+      <c r="E343" s="4"/>
+    </row>
+    <row r="344">
+      <c r="E344" s="4"/>
+    </row>
+    <row r="345">
+      <c r="E345" s="4"/>
+    </row>
+    <row r="346">
+      <c r="E346" s="4"/>
+    </row>
+    <row r="347">
+      <c r="E347" s="4"/>
+    </row>
+    <row r="348">
+      <c r="E348" s="4"/>
+    </row>
+    <row r="349">
+      <c r="E349" s="4"/>
+    </row>
+    <row r="350">
+      <c r="E350" s="4"/>
+    </row>
+    <row r="351">
+      <c r="E351" s="4"/>
+    </row>
+    <row r="352">
+      <c r="E352" s="4"/>
+    </row>
+    <row r="353">
+      <c r="E353" s="4"/>
+    </row>
+    <row r="354">
+      <c r="E354" s="4"/>
+    </row>
+    <row r="355">
+      <c r="E355" s="4"/>
+    </row>
+    <row r="356">
+      <c r="E356" s="4"/>
+    </row>
+    <row r="357">
+      <c r="E357" s="4"/>
+    </row>
+    <row r="358">
+      <c r="E358" s="4"/>
+    </row>
+    <row r="359">
+      <c r="E359" s="4"/>
+    </row>
+    <row r="360">
+      <c r="E360" s="4"/>
+    </row>
+    <row r="361">
+      <c r="E361" s="4"/>
+    </row>
+    <row r="362">
+      <c r="E362" s="4"/>
+    </row>
+    <row r="363">
+      <c r="E363" s="4"/>
+    </row>
+    <row r="364">
+      <c r="E364" s="4"/>
+    </row>
+    <row r="365">
+      <c r="E365" s="4"/>
+    </row>
+    <row r="366">
+      <c r="E366" s="4"/>
+    </row>
+    <row r="367">
+      <c r="E367" s="4"/>
+    </row>
+    <row r="368">
+      <c r="E368" s="4"/>
+    </row>
+    <row r="369">
+      <c r="E369" s="4"/>
+    </row>
+    <row r="370">
+      <c r="E370" s="4"/>
+    </row>
+    <row r="371">
+      <c r="E371" s="4"/>
+    </row>
+    <row r="372">
+      <c r="E372" s="4"/>
+    </row>
+    <row r="373">
+      <c r="E373" s="4"/>
+    </row>
+    <row r="374">
+      <c r="E374" s="4"/>
+    </row>
+    <row r="375">
+      <c r="E375" s="4"/>
+    </row>
+    <row r="376">
+      <c r="E376" s="4"/>
+    </row>
+    <row r="377">
+      <c r="E377" s="4"/>
+    </row>
+    <row r="378">
+      <c r="E378" s="4"/>
+    </row>
+    <row r="379">
+      <c r="E379" s="4"/>
+    </row>
+    <row r="380">
+      <c r="E380" s="4"/>
+    </row>
+    <row r="381">
+      <c r="E381" s="4"/>
+    </row>
+    <row r="382">
+      <c r="E382" s="4"/>
+    </row>
+    <row r="383">
+      <c r="E383" s="4"/>
+    </row>
+    <row r="384">
+      <c r="E384" s="4"/>
+    </row>
+    <row r="385">
+      <c r="E385" s="4"/>
+    </row>
+    <row r="386">
+      <c r="E386" s="4"/>
+    </row>
+    <row r="387">
+      <c r="E387" s="4"/>
+    </row>
+    <row r="388">
+      <c r="E388" s="4"/>
+    </row>
+    <row r="389">
+      <c r="E389" s="4"/>
+    </row>
+    <row r="390">
+      <c r="E390" s="4"/>
+    </row>
+    <row r="391">
+      <c r="E391" s="4"/>
+    </row>
+    <row r="392">
+      <c r="E392" s="4"/>
+    </row>
+    <row r="393">
+      <c r="E393" s="4"/>
+    </row>
+    <row r="394">
+      <c r="E394" s="4"/>
+    </row>
+    <row r="395">
+      <c r="E395" s="4"/>
+    </row>
+    <row r="396">
+      <c r="E396" s="4"/>
+    </row>
+    <row r="397">
+      <c r="E397" s="4"/>
+    </row>
+    <row r="398">
+      <c r="E398" s="4"/>
+    </row>
+    <row r="399">
+      <c r="E399" s="4"/>
+    </row>
+    <row r="400">
+      <c r="E400" s="4"/>
+    </row>
+    <row r="401">
+      <c r="E401" s="4"/>
+    </row>
+    <row r="402">
+      <c r="E402" s="4"/>
+    </row>
+    <row r="403">
+      <c r="E403" s="4"/>
+    </row>
+    <row r="404">
+      <c r="E404" s="4"/>
+    </row>
+    <row r="405">
+      <c r="E405" s="4"/>
+    </row>
+    <row r="406">
+      <c r="E406" s="4"/>
+    </row>
+    <row r="407">
+      <c r="E407" s="4"/>
+    </row>
+    <row r="408">
+      <c r="E408" s="4"/>
+    </row>
+    <row r="409">
+      <c r="E409" s="4"/>
+    </row>
+    <row r="410">
+      <c r="E410" s="4"/>
+    </row>
+    <row r="411">
+      <c r="E411" s="4"/>
+    </row>
+    <row r="412">
+      <c r="E412" s="4"/>
+    </row>
+    <row r="413">
+      <c r="E413" s="4"/>
+    </row>
+    <row r="414">
+      <c r="E414" s="4"/>
+    </row>
+    <row r="415">
+      <c r="E415" s="4"/>
+    </row>
+    <row r="416">
+      <c r="E416" s="4"/>
+    </row>
+    <row r="417">
+      <c r="E417" s="4"/>
+    </row>
+    <row r="418">
+      <c r="E418" s="4"/>
+    </row>
+    <row r="419">
+      <c r="E419" s="4"/>
+    </row>
+    <row r="420">
+      <c r="E420" s="4"/>
+    </row>
+    <row r="421">
+      <c r="E421" s="4"/>
+    </row>
+    <row r="422">
+      <c r="E422" s="4"/>
+    </row>
+    <row r="423">
+      <c r="E423" s="4"/>
+    </row>
+    <row r="424">
+      <c r="E424" s="4"/>
+    </row>
+    <row r="425">
+      <c r="E425" s="4"/>
+    </row>
+    <row r="426">
+      <c r="E426" s="4"/>
+    </row>
+    <row r="427">
+      <c r="E427" s="4"/>
+    </row>
+    <row r="428">
+      <c r="E428" s="4"/>
+    </row>
+    <row r="429">
+      <c r="E429" s="4"/>
+    </row>
+    <row r="430">
+      <c r="E430" s="4"/>
+    </row>
+    <row r="431">
+      <c r="E431" s="4"/>
+    </row>
+    <row r="432">
+      <c r="E432" s="4"/>
+    </row>
+    <row r="433">
+      <c r="E433" s="4"/>
+    </row>
+    <row r="434">
+      <c r="E434" s="4"/>
+    </row>
+    <row r="435">
+      <c r="E435" s="4"/>
+    </row>
+    <row r="436">
+      <c r="E436" s="4"/>
+    </row>
+    <row r="437">
+      <c r="E437" s="4"/>
+    </row>
+    <row r="438">
+      <c r="E438" s="4"/>
+    </row>
+    <row r="439">
+      <c r="E439" s="4"/>
+    </row>
+    <row r="440">
+      <c r="E440" s="4"/>
+    </row>
+    <row r="441">
+      <c r="E441" s="4"/>
+    </row>
+    <row r="442">
+      <c r="E442" s="4"/>
+    </row>
+    <row r="443">
+      <c r="E443" s="4"/>
+    </row>
+    <row r="444">
+      <c r="E444" s="4"/>
+    </row>
+    <row r="445">
+      <c r="E445" s="4"/>
+    </row>
+    <row r="446">
+      <c r="E446" s="4"/>
+    </row>
+    <row r="447">
+      <c r="E447" s="4"/>
+    </row>
+    <row r="448">
+      <c r="E448" s="4"/>
+    </row>
+    <row r="449">
+      <c r="E449" s="4"/>
+    </row>
+    <row r="450">
+      <c r="E450" s="4"/>
+    </row>
+    <row r="451">
+      <c r="E451" s="4"/>
+    </row>
+    <row r="452">
+      <c r="E452" s="4"/>
+    </row>
+    <row r="453">
+      <c r="E453" s="4"/>
+    </row>
+    <row r="454">
+      <c r="E454" s="4"/>
+    </row>
+    <row r="455">
+      <c r="E455" s="4"/>
+    </row>
+    <row r="456">
+      <c r="E456" s="4"/>
+    </row>
+    <row r="457">
+      <c r="E457" s="4"/>
+    </row>
+    <row r="458">
+      <c r="E458" s="4"/>
+    </row>
+    <row r="459">
+      <c r="E459" s="4"/>
+    </row>
+    <row r="460">
+      <c r="E460" s="4"/>
+    </row>
+    <row r="461">
+      <c r="E461" s="4"/>
+    </row>
+    <row r="462">
+      <c r="E462" s="4"/>
+    </row>
+    <row r="463">
+      <c r="E463" s="4"/>
+    </row>
+    <row r="464">
+      <c r="E464" s="4"/>
+    </row>
+    <row r="465">
+      <c r="E465" s="4"/>
+    </row>
+    <row r="466">
+      <c r="E466" s="4"/>
+    </row>
+    <row r="467">
+      <c r="E467" s="4"/>
+    </row>
+    <row r="468">
+      <c r="E468" s="4"/>
+    </row>
+    <row r="469">
+      <c r="E469" s="4"/>
+    </row>
+    <row r="470">
+      <c r="E470" s="4"/>
+    </row>
+    <row r="471">
+      <c r="E471" s="4"/>
+    </row>
+    <row r="472">
+      <c r="E472" s="4"/>
+    </row>
+    <row r="473">
+      <c r="E473" s="4"/>
+    </row>
+    <row r="474">
+      <c r="E474" s="4"/>
+    </row>
+    <row r="475">
+      <c r="E475" s="4"/>
+    </row>
+    <row r="476">
+      <c r="E476" s="4"/>
+    </row>
+    <row r="477">
+      <c r="E477" s="4"/>
+    </row>
+    <row r="478">
+      <c r="E478" s="4"/>
+    </row>
+    <row r="479">
+      <c r="E479" s="4"/>
+    </row>
+    <row r="480">
+      <c r="E480" s="4"/>
+    </row>
+    <row r="481">
+      <c r="E481" s="4"/>
+    </row>
+    <row r="482">
+      <c r="E482" s="4"/>
+    </row>
+    <row r="483">
+      <c r="E483" s="4"/>
+    </row>
+    <row r="484">
+      <c r="E484" s="4"/>
+    </row>
+    <row r="485">
+      <c r="E485" s="4"/>
+    </row>
+    <row r="486">
+      <c r="E486" s="4"/>
+    </row>
+    <row r="487">
+      <c r="E487" s="4"/>
+    </row>
+    <row r="488">
+      <c r="E488" s="4"/>
+    </row>
+    <row r="489">
+      <c r="E489" s="4"/>
+    </row>
+    <row r="490">
+      <c r="E490" s="4"/>
+    </row>
+    <row r="491">
+      <c r="E491" s="4"/>
+    </row>
+    <row r="492">
+      <c r="E492" s="4"/>
+    </row>
+    <row r="493">
+      <c r="E493" s="4"/>
+    </row>
+    <row r="494">
+      <c r="E494" s="4"/>
+    </row>
+    <row r="495">
+      <c r="E495" s="4"/>
+    </row>
+    <row r="496">
+      <c r="E496" s="4"/>
+    </row>
+    <row r="497">
+      <c r="E497" s="4"/>
+    </row>
+    <row r="498">
+      <c r="E498" s="4"/>
+    </row>
+    <row r="499">
+      <c r="E499" s="4"/>
+    </row>
+    <row r="500">
+      <c r="E500" s="4"/>
+    </row>
+    <row r="501">
+      <c r="E501" s="4"/>
+    </row>
+    <row r="502">
+      <c r="E502" s="4"/>
+    </row>
+    <row r="503">
+      <c r="E503" s="4"/>
+    </row>
+    <row r="504">
+      <c r="E504" s="4"/>
+    </row>
+    <row r="505">
+      <c r="E505" s="4"/>
+    </row>
+    <row r="506">
+      <c r="E506" s="4"/>
+    </row>
+    <row r="507">
+      <c r="E507" s="4"/>
+    </row>
+    <row r="508">
+      <c r="E508" s="4"/>
+    </row>
+    <row r="509">
+      <c r="E509" s="4"/>
+    </row>
+    <row r="510">
+      <c r="E510" s="4"/>
+    </row>
+    <row r="511">
+      <c r="E511" s="4"/>
+    </row>
+    <row r="512">
+      <c r="E512" s="4"/>
+    </row>
+    <row r="513">
+      <c r="E513" s="4"/>
+    </row>
+    <row r="514">
+      <c r="E514" s="4"/>
+    </row>
+    <row r="515">
+      <c r="E515" s="4"/>
+    </row>
+    <row r="516">
+      <c r="E516" s="4"/>
+    </row>
+    <row r="517">
+      <c r="E517" s="4"/>
+    </row>
+    <row r="518">
+      <c r="E518" s="4"/>
+    </row>
+    <row r="519">
+      <c r="E519" s="4"/>
+    </row>
+    <row r="520">
+      <c r="E520" s="4"/>
+    </row>
+    <row r="521">
+      <c r="E521" s="4"/>
+    </row>
+    <row r="522">
+      <c r="E522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="E523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="E524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="E525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="E526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="E527" s="4"/>
+    </row>
+    <row r="528">
+      <c r="E528" s="4"/>
+    </row>
+    <row r="529">
+      <c r="E529" s="4"/>
+    </row>
+    <row r="530">
+      <c r="E530" s="4"/>
+    </row>
+    <row r="531">
+      <c r="E531" s="4"/>
+    </row>
+    <row r="532">
+      <c r="E532" s="4"/>
+    </row>
+    <row r="533">
+      <c r="E533" s="4"/>
+    </row>
+    <row r="534">
+      <c r="E534" s="4"/>
+    </row>
+    <row r="535">
+      <c r="E535" s="4"/>
+    </row>
+    <row r="536">
+      <c r="E536" s="4"/>
+    </row>
+    <row r="537">
+      <c r="E537" s="4"/>
+    </row>
+    <row r="538">
+      <c r="E538" s="4"/>
+    </row>
+    <row r="539">
+      <c r="E539" s="4"/>
+    </row>
+    <row r="540">
+      <c r="E540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="E541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="E542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="E543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="E544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="E545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="E546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="E547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="E548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="E549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="E550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="E551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="E552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="E553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="E554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="E555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="E556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="E557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="E558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="E559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="E560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="E561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="E562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="E563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="E564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="E565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="E566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="E567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="E568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="E569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="E570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="E571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="E572" s="4"/>
+    </row>
+    <row r="573">
+      <c r="E573" s="4"/>
+    </row>
+    <row r="574">
+      <c r="E574" s="4"/>
+    </row>
+    <row r="575">
+      <c r="E575" s="4"/>
+    </row>
+    <row r="576">
+      <c r="E576" s="4"/>
+    </row>
+    <row r="577">
+      <c r="E577" s="4"/>
+    </row>
+    <row r="578">
+      <c r="E578" s="4"/>
+    </row>
+    <row r="579">
+      <c r="E579" s="4"/>
+    </row>
+    <row r="580">
+      <c r="E580" s="4"/>
+    </row>
+    <row r="581">
+      <c r="E581" s="4"/>
+    </row>
+    <row r="582">
+      <c r="E582" s="4"/>
+    </row>
+    <row r="583">
+      <c r="E583" s="4"/>
+    </row>
+    <row r="584">
+      <c r="E584" s="4"/>
+    </row>
+    <row r="585">
+      <c r="E585" s="4"/>
+    </row>
+    <row r="586">
+      <c r="E586" s="4"/>
+    </row>
+    <row r="587">
+      <c r="E587" s="4"/>
+    </row>
+    <row r="588">
+      <c r="E588" s="4"/>
+    </row>
+    <row r="589">
+      <c r="E589" s="4"/>
+    </row>
+    <row r="590">
+      <c r="E590" s="4"/>
+    </row>
+    <row r="591">
+      <c r="E591" s="4"/>
+    </row>
+    <row r="592">
+      <c r="E592" s="4"/>
+    </row>
+    <row r="593">
+      <c r="E593" s="4"/>
+    </row>
+    <row r="594">
+      <c r="E594" s="4"/>
+    </row>
+    <row r="595">
+      <c r="E595" s="4"/>
+    </row>
+    <row r="596">
+      <c r="E596" s="4"/>
+    </row>
+    <row r="597">
+      <c r="E597" s="4"/>
+    </row>
+    <row r="598">
+      <c r="E598" s="4"/>
+    </row>
+    <row r="599">
+      <c r="E599" s="4"/>
+    </row>
+    <row r="600">
+      <c r="E600" s="4"/>
+    </row>
+    <row r="601">
+      <c r="E601" s="4"/>
+    </row>
+    <row r="602">
+      <c r="E602" s="4"/>
+    </row>
+    <row r="603">
+      <c r="E603" s="4"/>
+    </row>
+    <row r="604">
+      <c r="E604" s="4"/>
+    </row>
+    <row r="605">
+      <c r="E605" s="4"/>
+    </row>
+    <row r="606">
+      <c r="E606" s="4"/>
+    </row>
+    <row r="607">
+      <c r="E607" s="4"/>
+    </row>
+    <row r="608">
+      <c r="E608" s="4"/>
+    </row>
+    <row r="609">
+      <c r="E609" s="4"/>
+    </row>
+    <row r="610">
+      <c r="E610" s="4"/>
+    </row>
+    <row r="611">
+      <c r="E611" s="4"/>
+    </row>
+    <row r="612">
+      <c r="E612" s="4"/>
+    </row>
+    <row r="613">
+      <c r="E613" s="4"/>
+    </row>
+    <row r="614">
+      <c r="E614" s="4"/>
+    </row>
+    <row r="615">
+      <c r="E615" s="4"/>
+    </row>
+    <row r="616">
+      <c r="E616" s="4"/>
+    </row>
+    <row r="617">
+      <c r="E617" s="4"/>
+    </row>
+    <row r="618">
+      <c r="E618" s="4"/>
+    </row>
+    <row r="619">
+      <c r="E619" s="4"/>
+    </row>
+    <row r="620">
+      <c r="E620" s="4"/>
+    </row>
+    <row r="621">
+      <c r="E621" s="4"/>
+    </row>
+    <row r="622">
+      <c r="E622" s="4"/>
+    </row>
+    <row r="623">
+      <c r="E623" s="4"/>
+    </row>
+    <row r="624">
+      <c r="E624" s="4"/>
+    </row>
+    <row r="625">
+      <c r="E625" s="4"/>
+    </row>
+    <row r="626">
+      <c r="E626" s="4"/>
+    </row>
+    <row r="627">
+      <c r="E627" s="4"/>
+    </row>
+    <row r="628">
+      <c r="E628" s="4"/>
+    </row>
+    <row r="629">
+      <c r="E629" s="4"/>
+    </row>
+    <row r="630">
+      <c r="E630" s="4"/>
+    </row>
+    <row r="631">
+      <c r="E631" s="4"/>
+    </row>
+    <row r="632">
+      <c r="E632" s="4"/>
+    </row>
+    <row r="633">
+      <c r="E633" s="4"/>
+    </row>
+    <row r="634">
+      <c r="E634" s="4"/>
+    </row>
+    <row r="635">
+      <c r="E635" s="4"/>
+    </row>
+    <row r="636">
+      <c r="E636" s="4"/>
+    </row>
+    <row r="637">
+      <c r="E637" s="4"/>
+    </row>
+    <row r="638">
+      <c r="E638" s="4"/>
+    </row>
+    <row r="639">
+      <c r="E639" s="4"/>
+    </row>
+    <row r="640">
+      <c r="E640" s="4"/>
+    </row>
+    <row r="641">
+      <c r="E641" s="4"/>
+    </row>
+    <row r="642">
+      <c r="E642" s="4"/>
+    </row>
+    <row r="643">
+      <c r="E643" s="4"/>
+    </row>
+    <row r="644">
+      <c r="E644" s="4"/>
+    </row>
+    <row r="645">
+      <c r="E645" s="4"/>
+    </row>
+    <row r="646">
+      <c r="E646" s="4"/>
+    </row>
+    <row r="647">
+      <c r="E647" s="4"/>
+    </row>
+    <row r="648">
+      <c r="E648" s="4"/>
+    </row>
+    <row r="649">
+      <c r="E649" s="4"/>
+    </row>
+    <row r="650">
+      <c r="E650" s="4"/>
+    </row>
+    <row r="651">
+      <c r="E651" s="4"/>
+    </row>
+    <row r="652">
+      <c r="E652" s="4"/>
+    </row>
+    <row r="653">
+      <c r="E653" s="4"/>
+    </row>
+    <row r="654">
+      <c r="E654" s="4"/>
+    </row>
+    <row r="655">
+      <c r="E655" s="4"/>
+    </row>
+    <row r="656">
+      <c r="E656" s="4"/>
+    </row>
+    <row r="657">
+      <c r="E657" s="4"/>
+    </row>
+    <row r="658">
+      <c r="E658" s="4"/>
+    </row>
+    <row r="659">
+      <c r="E659" s="4"/>
+    </row>
+    <row r="660">
+      <c r="E660" s="4"/>
+    </row>
+    <row r="661">
+      <c r="E661" s="4"/>
+    </row>
+    <row r="662">
+      <c r="E662" s="4"/>
+    </row>
+    <row r="663">
+      <c r="E663" s="4"/>
+    </row>
+    <row r="664">
+      <c r="E664" s="4"/>
+    </row>
+    <row r="665">
+      <c r="E665" s="4"/>
+    </row>
+    <row r="666">
+      <c r="E666" s="4"/>
+    </row>
+    <row r="667">
+      <c r="E667" s="4"/>
+    </row>
+    <row r="668">
+      <c r="E668" s="4"/>
+    </row>
+    <row r="669">
+      <c r="E669" s="4"/>
+    </row>
+    <row r="670">
+      <c r="E670" s="4"/>
+    </row>
+    <row r="671">
+      <c r="E671" s="4"/>
+    </row>
+    <row r="672">
+      <c r="E672" s="4"/>
+    </row>
+    <row r="673">
+      <c r="E673" s="4"/>
+    </row>
+    <row r="674">
+      <c r="E674" s="4"/>
+    </row>
+    <row r="675">
+      <c r="E675" s="4"/>
+    </row>
+    <row r="676">
+      <c r="E676" s="4"/>
+    </row>
+    <row r="677">
+      <c r="E677" s="4"/>
+    </row>
+    <row r="678">
+      <c r="E678" s="4"/>
+    </row>
+    <row r="679">
+      <c r="E679" s="4"/>
+    </row>
+    <row r="680">
+      <c r="E680" s="4"/>
+    </row>
+    <row r="681">
+      <c r="E681" s="4"/>
+    </row>
+    <row r="682">
+      <c r="E682" s="4"/>
+    </row>
+    <row r="683">
+      <c r="E683" s="4"/>
+    </row>
+    <row r="684">
+      <c r="E684" s="4"/>
+    </row>
+    <row r="685">
+      <c r="E685" s="4"/>
+    </row>
+    <row r="686">
+      <c r="E686" s="4"/>
+    </row>
+    <row r="687">
+      <c r="E687" s="4"/>
+    </row>
+    <row r="688">
+      <c r="E688" s="4"/>
+    </row>
+    <row r="689">
+      <c r="E689" s="4"/>
+    </row>
+    <row r="690">
+      <c r="E690" s="4"/>
+    </row>
+    <row r="691">
+      <c r="E691" s="4"/>
+    </row>
+    <row r="692">
+      <c r="E692" s="4"/>
+    </row>
+    <row r="693">
+      <c r="E693" s="4"/>
+    </row>
+    <row r="694">
+      <c r="E694" s="4"/>
+    </row>
+    <row r="695">
+      <c r="E695" s="4"/>
+    </row>
+    <row r="696">
+      <c r="E696" s="4"/>
+    </row>
+    <row r="697">
+      <c r="E697" s="4"/>
+    </row>
+    <row r="698">
+      <c r="E698" s="4"/>
+    </row>
+    <row r="699">
+      <c r="E699" s="4"/>
+    </row>
+    <row r="700">
+      <c r="E700" s="4"/>
+    </row>
+    <row r="701">
+      <c r="E701" s="4"/>
+    </row>
+    <row r="702">
+      <c r="E702" s="4"/>
+    </row>
+    <row r="703">
+      <c r="E703" s="4"/>
+    </row>
+    <row r="704">
+      <c r="E704" s="4"/>
+    </row>
+    <row r="705">
+      <c r="E705" s="4"/>
+    </row>
+    <row r="706">
+      <c r="E706" s="4"/>
+    </row>
+    <row r="707">
+      <c r="E707" s="4"/>
+    </row>
+    <row r="708">
+      <c r="E708" s="4"/>
+    </row>
+    <row r="709">
+      <c r="E709" s="4"/>
+    </row>
+    <row r="710">
+      <c r="E710" s="4"/>
+    </row>
+    <row r="711">
+      <c r="E711" s="4"/>
+    </row>
+    <row r="712">
+      <c r="E712" s="4"/>
+    </row>
+    <row r="713">
+      <c r="E713" s="4"/>
+    </row>
+    <row r="714">
+      <c r="E714" s="4"/>
+    </row>
+    <row r="715">
+      <c r="E715" s="4"/>
+    </row>
+    <row r="716">
+      <c r="E716" s="4"/>
+    </row>
+    <row r="717">
+      <c r="E717" s="4"/>
+    </row>
+    <row r="718">
+      <c r="E718" s="4"/>
+    </row>
+    <row r="719">
+      <c r="E719" s="4"/>
+    </row>
+    <row r="720">
+      <c r="E720" s="4"/>
+    </row>
+    <row r="721">
+      <c r="E721" s="4"/>
+    </row>
+    <row r="722">
+      <c r="E722" s="4"/>
+    </row>
+    <row r="723">
+      <c r="E723" s="4"/>
+    </row>
+    <row r="724">
+      <c r="E724" s="4"/>
+    </row>
+    <row r="725">
+      <c r="E725" s="4"/>
+    </row>
+    <row r="726">
+      <c r="E726" s="4"/>
+    </row>
+    <row r="727">
+      <c r="E727" s="4"/>
+    </row>
+    <row r="728">
+      <c r="E728" s="4"/>
+    </row>
+    <row r="729">
+      <c r="E729" s="4"/>
+    </row>
+    <row r="730">
+      <c r="E730" s="4"/>
+    </row>
+    <row r="731">
+      <c r="E731" s="4"/>
+    </row>
+    <row r="732">
+      <c r="E732" s="4"/>
+    </row>
+    <row r="733">
+      <c r="E733" s="4"/>
+    </row>
+    <row r="734">
+      <c r="E734" s="4"/>
+    </row>
+    <row r="735">
+      <c r="E735" s="4"/>
+    </row>
+    <row r="736">
+      <c r="E736" s="4"/>
+    </row>
+    <row r="737">
+      <c r="E737" s="4"/>
+    </row>
+    <row r="738">
+      <c r="E738" s="4"/>
+    </row>
+    <row r="739">
+      <c r="E739" s="4"/>
+    </row>
+    <row r="740">
+      <c r="E740" s="4"/>
+    </row>
+    <row r="741">
+      <c r="E741" s="4"/>
+    </row>
+    <row r="742">
+      <c r="E742" s="4"/>
+    </row>
+    <row r="743">
+      <c r="E743" s="4"/>
+    </row>
+    <row r="744">
+      <c r="E744" s="4"/>
+    </row>
+    <row r="745">
+      <c r="E745" s="4"/>
+    </row>
+    <row r="746">
+      <c r="E746" s="4"/>
+    </row>
+    <row r="747">
+      <c r="E747" s="4"/>
+    </row>
+    <row r="748">
+      <c r="E748" s="4"/>
+    </row>
+    <row r="749">
+      <c r="E749" s="4"/>
+    </row>
+    <row r="750">
+      <c r="E750" s="4"/>
+    </row>
+    <row r="751">
+      <c r="E751" s="4"/>
+    </row>
+    <row r="752">
+      <c r="E752" s="4"/>
+    </row>
+    <row r="753">
+      <c r="E753" s="4"/>
+    </row>
+    <row r="754">
+      <c r="E754" s="4"/>
+    </row>
+    <row r="755">
+      <c r="E755" s="4"/>
+    </row>
+    <row r="756">
+      <c r="E756" s="4"/>
+    </row>
+    <row r="757">
+      <c r="E757" s="4"/>
+    </row>
+    <row r="758">
+      <c r="E758" s="4"/>
+    </row>
+    <row r="759">
+      <c r="E759" s="4"/>
+    </row>
+    <row r="760">
+      <c r="E760" s="4"/>
+    </row>
+    <row r="761">
+      <c r="E761" s="4"/>
+    </row>
+    <row r="762">
+      <c r="E762" s="4"/>
+    </row>
+    <row r="763">
+      <c r="E763" s="4"/>
+    </row>
+    <row r="764">
+      <c r="E764" s="4"/>
+    </row>
+    <row r="765">
+      <c r="E765" s="4"/>
+    </row>
+    <row r="766">
+      <c r="E766" s="4"/>
+    </row>
+    <row r="767">
+      <c r="E767" s="4"/>
+    </row>
+    <row r="768">
+      <c r="E768" s="4"/>
+    </row>
+    <row r="769">
+      <c r="E769" s="4"/>
+    </row>
+    <row r="770">
+      <c r="E770" s="4"/>
+    </row>
+    <row r="771">
+      <c r="E771" s="4"/>
+    </row>
+    <row r="772">
+      <c r="E772" s="4"/>
+    </row>
+    <row r="773">
+      <c r="E773" s="4"/>
+    </row>
+    <row r="774">
+      <c r="E774" s="4"/>
+    </row>
+    <row r="775">
+      <c r="E775" s="4"/>
+    </row>
+    <row r="776">
+      <c r="E776" s="4"/>
+    </row>
+    <row r="777">
+      <c r="E777" s="4"/>
+    </row>
+    <row r="778">
+      <c r="E778" s="4"/>
+    </row>
+    <row r="779">
+      <c r="E779" s="4"/>
+    </row>
+    <row r="780">
+      <c r="E780" s="4"/>
+    </row>
+    <row r="781">
+      <c r="E781" s="4"/>
+    </row>
+    <row r="782">
+      <c r="E782" s="4"/>
+    </row>
+    <row r="783">
+      <c r="E783" s="4"/>
+    </row>
+    <row r="784">
+      <c r="E784" s="4"/>
+    </row>
+    <row r="785">
+      <c r="E785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="E786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="E787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="E788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="E789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="E790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="E791" s="4"/>
+    </row>
+    <row r="792">
+      <c r="E792" s="4"/>
+    </row>
+    <row r="793">
+      <c r="E793" s="4"/>
+    </row>
+    <row r="794">
+      <c r="E794" s="4"/>
+    </row>
+    <row r="795">
+      <c r="E795" s="4"/>
+    </row>
+    <row r="796">
+      <c r="E796" s="4"/>
+    </row>
+    <row r="797">
+      <c r="E797" s="4"/>
+    </row>
+    <row r="798">
+      <c r="E798" s="4"/>
+    </row>
+    <row r="799">
+      <c r="E799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="E800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="E801" s="4"/>
+    </row>
+    <row r="802">
+      <c r="E802" s="4"/>
+    </row>
+    <row r="803">
+      <c r="E803" s="4"/>
+    </row>
+    <row r="804">
+      <c r="E804" s="4"/>
+    </row>
+    <row r="805">
+      <c r="E805" s="4"/>
+    </row>
+    <row r="806">
+      <c r="E806" s="4"/>
+    </row>
+    <row r="807">
+      <c r="E807" s="4"/>
+    </row>
+    <row r="808">
+      <c r="E808" s="4"/>
+    </row>
+    <row r="809">
+      <c r="E809" s="4"/>
+    </row>
+    <row r="810">
+      <c r="E810" s="4"/>
+    </row>
+    <row r="811">
+      <c r="E811" s="4"/>
+    </row>
+    <row r="812">
+      <c r="E812" s="4"/>
+    </row>
+    <row r="813">
+      <c r="E813" s="4"/>
+    </row>
+    <row r="814">
+      <c r="E814" s="4"/>
+    </row>
+    <row r="815">
+      <c r="E815" s="4"/>
+    </row>
+    <row r="816">
+      <c r="E816" s="4"/>
+    </row>
+    <row r="817">
+      <c r="E817" s="4"/>
+    </row>
+    <row r="818">
+      <c r="E818" s="4"/>
+    </row>
+    <row r="819">
+      <c r="E819" s="4"/>
+    </row>
+    <row r="820">
+      <c r="E820" s="4"/>
+    </row>
+    <row r="821">
+      <c r="E821" s="4"/>
+    </row>
+    <row r="822">
+      <c r="E822" s="4"/>
+    </row>
+    <row r="823">
+      <c r="E823" s="4"/>
+    </row>
+    <row r="824">
+      <c r="E824" s="4"/>
+    </row>
+    <row r="825">
+      <c r="E825" s="4"/>
+    </row>
+    <row r="826">
+      <c r="E826" s="4"/>
+    </row>
+    <row r="827">
+      <c r="E827" s="4"/>
+    </row>
+    <row r="828">
+      <c r="E828" s="4"/>
+    </row>
+    <row r="829">
+      <c r="E829" s="4"/>
+    </row>
+    <row r="830">
+      <c r="E830" s="4"/>
+    </row>
+    <row r="831">
+      <c r="E831" s="4"/>
+    </row>
+    <row r="832">
+      <c r="E832" s="4"/>
+    </row>
+    <row r="833">
+      <c r="E833" s="4"/>
+    </row>
+    <row r="834">
+      <c r="E834" s="4"/>
+    </row>
+    <row r="835">
+      <c r="E835" s="4"/>
+    </row>
+    <row r="836">
+      <c r="E836" s="4"/>
+    </row>
+    <row r="837">
+      <c r="E837" s="4"/>
+    </row>
+    <row r="838">
+      <c r="E838" s="4"/>
+    </row>
+    <row r="839">
+      <c r="E839" s="4"/>
+    </row>
+    <row r="840">
+      <c r="E840" s="4"/>
+    </row>
+    <row r="841">
+      <c r="E841" s="4"/>
+    </row>
+    <row r="842">
+      <c r="E842" s="4"/>
+    </row>
+    <row r="843">
+      <c r="E843" s="4"/>
+    </row>
+    <row r="844">
+      <c r="E844" s="4"/>
+    </row>
+    <row r="845">
+      <c r="E845" s="4"/>
+    </row>
+    <row r="846">
+      <c r="E846" s="4"/>
+    </row>
+    <row r="847">
+      <c r="E847" s="4"/>
+    </row>
+    <row r="848">
+      <c r="E848" s="4"/>
+    </row>
+    <row r="849">
+      <c r="E849" s="4"/>
+    </row>
+    <row r="850">
+      <c r="E850" s="4"/>
+    </row>
+    <row r="851">
+      <c r="E851" s="4"/>
+    </row>
+    <row r="852">
+      <c r="E852" s="4"/>
+    </row>
+    <row r="853">
+      <c r="E853" s="4"/>
+    </row>
+    <row r="854">
+      <c r="E854" s="4"/>
+    </row>
+    <row r="855">
+      <c r="E855" s="4"/>
+    </row>
+    <row r="856">
+      <c r="E856" s="4"/>
+    </row>
+    <row r="857">
+      <c r="E857" s="4"/>
+    </row>
+    <row r="858">
+      <c r="E858" s="4"/>
+    </row>
+    <row r="859">
+      <c r="E859" s="4"/>
+    </row>
+    <row r="860">
+      <c r="E860" s="4"/>
+    </row>
+    <row r="861">
+      <c r="E861" s="4"/>
+    </row>
+    <row r="862">
+      <c r="E862" s="4"/>
+    </row>
+    <row r="863">
+      <c r="E863" s="4"/>
+    </row>
+    <row r="864">
+      <c r="E864" s="4"/>
+    </row>
+    <row r="865">
+      <c r="E865" s="4"/>
+    </row>
+    <row r="866">
+      <c r="E866" s="4"/>
+    </row>
+    <row r="867">
+      <c r="E867" s="4"/>
+    </row>
+    <row r="868">
+      <c r="E868" s="4"/>
+    </row>
+    <row r="869">
+      <c r="E869" s="4"/>
+    </row>
+    <row r="870">
+      <c r="E870" s="4"/>
+    </row>
+    <row r="871">
+      <c r="E871" s="4"/>
+    </row>
+    <row r="872">
+      <c r="E872" s="4"/>
+    </row>
+    <row r="873">
+      <c r="E873" s="4"/>
+    </row>
+    <row r="874">
+      <c r="E874" s="4"/>
+    </row>
+    <row r="875">
+      <c r="E875" s="4"/>
+    </row>
+    <row r="876">
+      <c r="E876" s="4"/>
+    </row>
+    <row r="877">
+      <c r="E877" s="4"/>
+    </row>
+    <row r="878">
+      <c r="E878" s="4"/>
+    </row>
+    <row r="879">
+      <c r="E879" s="4"/>
+    </row>
+    <row r="880">
+      <c r="E880" s="4"/>
+    </row>
+    <row r="881">
+      <c r="E881" s="4"/>
+    </row>
+    <row r="882">
+      <c r="E882" s="4"/>
+    </row>
+    <row r="883">
+      <c r="E883" s="4"/>
+    </row>
+    <row r="884">
+      <c r="E884" s="4"/>
+    </row>
+    <row r="885">
+      <c r="E885" s="4"/>
+    </row>
+    <row r="886">
+      <c r="E886" s="4"/>
+    </row>
+    <row r="887">
+      <c r="E887" s="4"/>
+    </row>
+    <row r="888">
+      <c r="E888" s="4"/>
+    </row>
+    <row r="889">
+      <c r="E889" s="4"/>
+    </row>
+    <row r="890">
+      <c r="E890" s="4"/>
+    </row>
+    <row r="891">
+      <c r="E891" s="4"/>
+    </row>
+    <row r="892">
+      <c r="E892" s="4"/>
+    </row>
+    <row r="893">
+      <c r="E893" s="4"/>
+    </row>
+    <row r="894">
+      <c r="E894" s="4"/>
+    </row>
+    <row r="895">
+      <c r="E895" s="4"/>
+    </row>
+    <row r="896">
+      <c r="E896" s="4"/>
+    </row>
+    <row r="897">
+      <c r="E897" s="4"/>
+    </row>
+    <row r="898">
+      <c r="E898" s="4"/>
+    </row>
+    <row r="899">
+      <c r="E899" s="4"/>
+    </row>
+    <row r="900">
+      <c r="E900" s="4"/>
+    </row>
+    <row r="901">
+      <c r="E901" s="4"/>
+    </row>
+    <row r="902">
+      <c r="E902" s="4"/>
+    </row>
+    <row r="903">
+      <c r="E903" s="4"/>
+    </row>
+    <row r="904">
+      <c r="E904" s="4"/>
+    </row>
+    <row r="905">
+      <c r="E905" s="4"/>
+    </row>
+    <row r="906">
+      <c r="E906" s="4"/>
+    </row>
+    <row r="907">
+      <c r="E907" s="4"/>
+    </row>
+    <row r="908">
+      <c r="E908" s="4"/>
+    </row>
+    <row r="909">
+      <c r="E909" s="4"/>
+    </row>
+    <row r="910">
+      <c r="E910" s="4"/>
+    </row>
+    <row r="911">
+      <c r="E911" s="4"/>
+    </row>
+    <row r="912">
+      <c r="E912" s="4"/>
+    </row>
+    <row r="913">
+      <c r="E913" s="4"/>
+    </row>
+    <row r="914">
+      <c r="E914" s="4"/>
+    </row>
+    <row r="915">
+      <c r="E915" s="4"/>
+    </row>
+    <row r="916">
+      <c r="E916" s="4"/>
+    </row>
+    <row r="917">
+      <c r="E917" s="4"/>
+    </row>
+    <row r="918">
+      <c r="E918" s="4"/>
+    </row>
+    <row r="919">
+      <c r="E919" s="4"/>
+    </row>
+    <row r="920">
+      <c r="E920" s="4"/>
+    </row>
+    <row r="921">
+      <c r="E921" s="4"/>
+    </row>
+    <row r="922">
+      <c r="E922" s="4"/>
+    </row>
+    <row r="923">
+      <c r="E923" s="4"/>
+    </row>
+    <row r="924">
+      <c r="E924" s="4"/>
+    </row>
+    <row r="925">
+      <c r="E925" s="4"/>
+    </row>
+    <row r="926">
+      <c r="E926" s="4"/>
+    </row>
+    <row r="927">
+      <c r="E927" s="4"/>
+    </row>
+    <row r="928">
+      <c r="E928" s="4"/>
+    </row>
+    <row r="929">
+      <c r="E929" s="4"/>
+    </row>
+    <row r="930">
+      <c r="E930" s="4"/>
+    </row>
+    <row r="931">
+      <c r="E931" s="4"/>
+    </row>
+    <row r="932">
+      <c r="E932" s="4"/>
+    </row>
+    <row r="933">
+      <c r="E933" s="4"/>
+    </row>
+    <row r="934">
+      <c r="E934" s="4"/>
+    </row>
+    <row r="935">
+      <c r="E935" s="4"/>
+    </row>
+    <row r="936">
+      <c r="E936" s="4"/>
+    </row>
+    <row r="937">
+      <c r="E937" s="4"/>
+    </row>
+    <row r="938">
+      <c r="E938" s="4"/>
+    </row>
+    <row r="939">
+      <c r="E939" s="4"/>
+    </row>
+    <row r="940">
+      <c r="E940" s="4"/>
+    </row>
+    <row r="941">
+      <c r="E941" s="4"/>
+    </row>
+    <row r="942">
+      <c r="E942" s="4"/>
+    </row>
+    <row r="943">
+      <c r="E943" s="4"/>
+    </row>
+    <row r="944">
+      <c r="E944" s="4"/>
+    </row>
+    <row r="945">
+      <c r="E945" s="4"/>
+    </row>
+    <row r="946">
+      <c r="E946" s="4"/>
+    </row>
+    <row r="947">
+      <c r="E947" s="4"/>
+    </row>
+    <row r="948">
+      <c r="E948" s="4"/>
+    </row>
+    <row r="949">
+      <c r="E949" s="4"/>
+    </row>
+    <row r="950">
+      <c r="E950" s="4"/>
+    </row>
+    <row r="951">
+      <c r="E951" s="4"/>
+    </row>
+    <row r="952">
+      <c r="E952" s="4"/>
+    </row>
+    <row r="953">
+      <c r="E953" s="4"/>
+    </row>
+    <row r="954">
+      <c r="E954" s="4"/>
+    </row>
+    <row r="955">
+      <c r="E955" s="4"/>
+    </row>
+    <row r="956">
+      <c r="E956" s="4"/>
+    </row>
+    <row r="957">
+      <c r="E957" s="4"/>
+    </row>
+    <row r="958">
+      <c r="E958" s="4"/>
+    </row>
+    <row r="959">
+      <c r="E959" s="4"/>
+    </row>
+    <row r="960">
+      <c r="E960" s="4"/>
+    </row>
+    <row r="961">
+      <c r="E961" s="4"/>
+    </row>
+    <row r="962">
+      <c r="E962" s="4"/>
+    </row>
+    <row r="963">
+      <c r="E963" s="4"/>
+    </row>
+    <row r="964">
+      <c r="E964" s="4"/>
+    </row>
+    <row r="965">
+      <c r="E965" s="4"/>
+    </row>
+    <row r="966">
+      <c r="E966" s="4"/>
+    </row>
+    <row r="967">
+      <c r="E967" s="4"/>
+    </row>
+    <row r="968">
+      <c r="E968" s="4"/>
+    </row>
+    <row r="969">
+      <c r="E969" s="4"/>
+    </row>
+    <row r="970">
+      <c r="E970" s="4"/>
+    </row>
+    <row r="971">
+      <c r="E971" s="4"/>
+    </row>
+    <row r="972">
+      <c r="E972" s="4"/>
+    </row>
+    <row r="973">
+      <c r="E973" s="4"/>
+    </row>
+    <row r="974">
+      <c r="E974" s="4"/>
+    </row>
+    <row r="975">
+      <c r="E975" s="4"/>
+    </row>
+    <row r="976">
+      <c r="E976" s="4"/>
+    </row>
+    <row r="977">
+      <c r="E977" s="4"/>
+    </row>
+    <row r="978">
+      <c r="E978" s="4"/>
+    </row>
+    <row r="979">
+      <c r="E979" s="4"/>
+    </row>
+    <row r="980">
+      <c r="E980" s="4"/>
+    </row>
+    <row r="981">
+      <c r="E981" s="4"/>
+    </row>
+    <row r="982">
+      <c r="E982" s="4"/>
+    </row>
+    <row r="983">
+      <c r="E983" s="4"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="4"/>
+    </row>
+    <row r="985">
+      <c r="E985" s="4"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="4"/>
+    </row>
+    <row r="987">
+      <c r="E987" s="4"/>
+    </row>
+    <row r="988">
+      <c r="E988" s="4"/>
+    </row>
+    <row r="989">
+      <c r="E989" s="4"/>
+    </row>
+    <row r="990">
+      <c r="E990" s="4"/>
+    </row>
+    <row r="991">
+      <c r="E991" s="4"/>
+    </row>
+    <row r="992">
+      <c r="E992" s="4"/>
+    </row>
+    <row r="993">
+      <c r="E993" s="4"/>
+    </row>
+    <row r="994">
+      <c r="E994" s="4"/>
+    </row>
+    <row r="995">
+      <c r="E995" s="4"/>
+    </row>
+    <row r="996">
+      <c r="E996" s="4"/>
+    </row>
+    <row r="997">
+      <c r="E997" s="4"/>
+    </row>
+    <row r="998">
+      <c r="E998" s="4"/>
+    </row>
+    <row r="999">
+      <c r="E999" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
